--- a/biology/Médecine/Almire-René-Jacques_Lepelletier/Almire-René-Jacques_Lepelletier.xlsx
+++ b/biology/Médecine/Almire-René-Jacques_Lepelletier/Almire-René-Jacques_Lepelletier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Almire-Ren%C3%A9-Jacques_Lepelletier</t>
+          <t>Almire-René-Jacques_Lepelletier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Almire-René-Jacques Lepelletier, né le 13 novembre 1790 au Mans et décédé le 28 février 1880 dans la même ville, est un médecin et un écrivain français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Almire-Ren%C3%A9-Jacques_Lepelletier</t>
+          <t>Almire-René-Jacques_Lepelletier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Carrière médicale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il étudia au Mans, puis à la Faculté de médecine de Paris à partir de 1813, où il fut l'un des élèves de Guillaume Dupuytren. Interne à la Salpêtrière, il y exerça comme chef de salle et y contracta le typhus pendant l'épidémie de 1814. Sa thèse, soutenue en 1818, portait sur la nature des scrofules. Il en tira son premier livre, Traité complet de la maladie scrofuleuse[1]. 
-En 1820, sa santé l'obligea à quitter Paris, où il enseignait la physiologie et la pathologie, pour revenir au Mans. Il y fut nommé chirurgien en chef de l'hôpital et y fonda une école de médecine[1].
-De 1830 à 1839, Lepelletier exerça à nouveau à Paris, avant de retourner dans sa région natale, où il se fit élire maire de la commune de Saint-Pavace (1861-1871)[2]. Il était membre correspondant de première classe de l'Académie de médecine de Paris[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il étudia au Mans, puis à la Faculté de médecine de Paris à partir de 1813, où il fut l'un des élèves de Guillaume Dupuytren. Interne à la Salpêtrière, il y exerça comme chef de salle et y contracta le typhus pendant l'épidémie de 1814. Sa thèse, soutenue en 1818, portait sur la nature des scrofules. Il en tira son premier livre, Traité complet de la maladie scrofuleuse. 
+En 1820, sa santé l'obligea à quitter Paris, où il enseignait la physiologie et la pathologie, pour revenir au Mans. Il y fut nommé chirurgien en chef de l'hôpital et y fonda une école de médecine.
+De 1830 à 1839, Lepelletier exerça à nouveau à Paris, avant de retourner dans sa région natale, où il se fit élire maire de la commune de Saint-Pavace (1861-1871). Il était membre correspondant de première classe de l'Académie de médecine de Paris.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Almire-Ren%C3%A9-Jacques_Lepelletier</t>
+          <t>Almire-René-Jacques_Lepelletier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Lepelletier a publié un grand nombre d'ouvrages médicaux, mais aussi portant sur divers sujets sociaux ou politiques. Il signait Almire Le Pelletier de la Sarthe.
 Traité complet de la maladie scrofuleuse, 1819
